--- a/public/file/opex/opex_b_adm_pajak_parkir.xlsx
+++ b/public/file/opex/opex_b_adm_pajak_parkir.xlsx
@@ -97,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,6 +107,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,21 +132,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -148,6 +155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,18 +170,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,24 +201,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,31 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,79 +263,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,97 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,30 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,6 +477,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +522,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,162 +554,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>150000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2500000</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2500000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2500000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2500000</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>200000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1200,13 +1200,13 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1200000</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1200000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1200000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>1200000</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>1200000</v>
       </c>
       <c r="P4">
-        <v>300000</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
